--- a/WorkBot/main/backend/ordering/OrderFiles/Copper Horse Coffee/Copper Horse Coffee_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Copper Horse Coffee/Copper Horse Coffee_Triphammer_20250704.xlsx
@@ -449,125 +449,137 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Copper Horse - Carriage House Blend (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>125.88</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12 oz Clocktower Espresso</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Copper Horse - Clocktower Espresso (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Copper Horse - Rumble Pony (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Copper Horse - Warhorse 5lb</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>48.99</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>244.95</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12 oz Warhorse Blend</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Copper Horse - Warhorse Blend (12oz)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
